--- a/Jupyter/Tiempo de corrida de quickSort.xlsx
+++ b/Jupyter/Tiempo de corrida de quickSort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SteBa\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A23344FA-D632-48FB-88A8-216ACDD66D75}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB374F24-9112-48BD-8EE1-8BD6E33914F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bubble" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>i</t>
+    <t>n</t>
   </si>
   <si>
-    <t>n</t>
+    <t>i</t>
   </si>
   <si>
     <t>time(n)</t>
@@ -35,26 +35,324 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -62,17 +360,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -102,6 +587,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Quicksort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -143,7 +653,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -154,12 +664,11 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="flat" cmpd="sng">
+              <a:ln w="19050" cap="rnd" cmpd="sng">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -202,7 +711,7 @@
             <c:numRef>
               <c:f>bubble!$C$2:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.33661533939277E-2</c:v>
@@ -240,7 +749,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-205E-47F4-A945-E6FC0332DADA}"/>
+              <c16:uniqueId val="{00000000-EA1D-49F2-B61A-65866E3ADE2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -253,11 +762,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="501896552"/>
-        <c:axId val="501897864"/>
+        <c:axId val="482965744"/>
+        <c:axId val="482965416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501896552"/>
+        <c:axId val="482965744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -300,7 +809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501897864"/>
+        <c:crossAx val="482965416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -308,7 +817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501897864"/>
+        <c:axId val="482965416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -328,7 +837,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -359,7 +868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501896552"/>
+        <c:crossAx val="482965744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -969,22 +1478,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
+      <xdr:colOff>2976</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>6550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962024</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2976</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>5954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E160F0-4692-431E-AD85-567FAAA7E76D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940DE03A-80B1-4CA7-90E2-77D784100FD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1304,136 +1813,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>1.33661533939277E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>0.301758531614506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>220</v>
+      </c>
+      <c r="C4">
+        <v>0.95914528900316098</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.33661533939277E-2</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>320</v>
+      </c>
+      <c r="C5">
+        <v>2.1244666564467898</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>120</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.301758531614506</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>420</v>
+      </c>
+      <c r="C6">
+        <v>3.77342984591577</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>220</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.95914528900316098</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>520</v>
+      </c>
+      <c r="C7">
+        <v>5.8683313420635903</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>320</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.1244666564467898</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>620</v>
+      </c>
+      <c r="C8">
+        <v>8.3895486799944692</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>420</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3.77342984591577</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>720</v>
+      </c>
+      <c r="C9">
+        <v>11.3533853743923</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>520</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5.8683313420635903</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>820</v>
+      </c>
+      <c r="C10">
+        <v>15.1307970570368</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>620</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8.3895486799944692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>720</v>
-      </c>
-      <c r="C9" s="2">
-        <v>11.3533853743923</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>820</v>
-      </c>
-      <c r="C10" s="2">
-        <v>15.1307970570368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>920</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>19.4947997591803</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>